--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_9_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_9_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107346.3489272779</v>
+        <v>132607.5375089405</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10429938.94452445</v>
+        <v>11019758.02182085</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21998954.8073268</v>
+        <v>21835642.82518256</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3997186.072203025</v>
+        <v>4019759.821668321</v>
       </c>
     </row>
     <row r="11">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>44.13817113907068</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>47.17491684713</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>43.02044558209779</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>48.29264240410291</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>50.00663580698998</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>49.0484881743911</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>97.1131187073232</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>118.1144979249472</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>166.1791284578793</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>150.7455318683137</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>50.00663580698998</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K11" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L11" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M11" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N11" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P11" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,13 +8768,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K12" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L12" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q12" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8848,22 +8850,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L13" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M13" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N13" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O13" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P13" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q13" t="n">
         <v>67.95667671286152</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K14" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L14" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M14" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N14" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P14" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,13 +9005,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K15" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L15" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9085,22 +9087,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L16" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M16" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N16" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O16" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P16" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q16" t="n">
         <v>67.95667671286152</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K17" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L17" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M17" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N17" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P17" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,13 +9242,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K18" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L18" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9322,22 +9324,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L19" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M19" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N19" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O19" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P19" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q19" t="n">
         <v>67.95667671286152</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K20" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L20" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M20" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N20" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P20" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,13 +9479,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K21" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L21" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9559,22 +9561,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L22" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M22" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N22" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O22" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P22" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K23" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L23" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M23" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N23" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P23" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,13 +9716,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K24" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L24" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9796,22 +9798,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L25" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M25" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N25" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O25" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P25" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K26" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L26" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M26" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N26" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P26" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q26" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9951,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K27" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L27" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10033,22 +10035,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L28" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M28" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N28" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O28" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P28" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K29" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L29" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M29" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N29" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P29" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q29" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10188,13 +10190,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K30" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L30" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10270,22 +10272,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L31" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M31" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N31" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O31" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P31" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K32" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L32" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M32" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N32" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P32" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10425,13 +10427,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K33" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L33" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10507,22 +10509,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L34" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M34" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N34" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O34" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P34" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K35" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L35" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M35" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N35" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P35" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10662,13 +10664,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K36" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L36" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q36" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10744,22 +10746,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L37" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M37" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N37" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O37" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P37" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K38" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L38" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M38" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N38" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P38" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10899,13 +10901,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K39" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L39" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10981,22 +10983,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L40" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M40" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N40" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O40" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P40" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>83.82543222923999</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K41" t="n">
-        <v>75.6628405919713</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L41" t="n">
-        <v>57.5238000663409</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M41" t="n">
-        <v>32.81671374064987</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N41" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>40.33184255098618</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P41" t="n">
-        <v>68.40055292880919</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.80882313533421</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11136,13 +11138,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>68.45858123773975</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K42" t="n">
-        <v>40.03595854374745</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L42" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.04014099716809</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.89067497778616</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11218,22 +11220,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>68.87068284861988</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L43" t="n">
-        <v>58.678083144819</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M43" t="n">
-        <v>58.65889631214456</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N43" t="n">
-        <v>49.52564638379106</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O43" t="n">
-        <v>65.75026523669263</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P43" t="n">
-        <v>75.03386400932396</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>83.82543222923999</v>
+        <v>44.49597070383828</v>
       </c>
       <c r="K44" t="n">
-        <v>75.6628405919713</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L44" t="n">
-        <v>57.5238000663409</v>
+        <v>30.98623788379728</v>
       </c>
       <c r="M44" t="n">
-        <v>32.81671374064987</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>28.80382028651667</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>40.33184255098618</v>
+        <v>10.80634076319765</v>
       </c>
       <c r="P44" t="n">
-        <v>68.40055292880919</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.80882313533421</v>
+        <v>48.76815227654424</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,13 +11375,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>68.45858123773975</v>
+        <v>45.03422338699515</v>
       </c>
       <c r="K45" t="n">
-        <v>40.03595854374745</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.04014099716809</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.89067497778616</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11455,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>68.87068284861988</v>
+        <v>44.72115092798461</v>
       </c>
       <c r="L46" t="n">
-        <v>58.678083144819</v>
+        <v>27.77499667924235</v>
       </c>
       <c r="M46" t="n">
-        <v>58.65889631214456</v>
+        <v>72.66443492914192</v>
       </c>
       <c r="N46" t="n">
-        <v>49.52564638379106</v>
+        <v>66.26755673132102</v>
       </c>
       <c r="O46" t="n">
-        <v>65.75026523669263</v>
+        <v>84.92035621943515</v>
       </c>
       <c r="P46" t="n">
-        <v>75.03386400932396</v>
+        <v>98.44429533869449</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23270,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H11" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I11" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S11" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T11" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23349,13 +23351,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H12" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I12" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S12" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T12" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23428,16 +23430,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H13" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J13" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T13" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23507,13 +23509,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H14" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I14" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S14" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T14" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23586,13 +23588,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H15" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I15" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S15" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T15" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23665,16 +23667,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H16" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J16" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T16" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23744,13 +23746,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H17" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I17" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S17" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23823,13 +23825,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H18" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I18" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S18" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T18" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23902,16 +23904,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H19" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J19" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T19" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23981,13 +23983,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H20" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I20" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S20" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24060,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H21" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I21" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S21" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T21" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24139,16 +24141,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H22" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J22" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T22" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24218,13 +24220,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H23" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I23" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S23" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T23" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24297,13 +24299,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H24" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I24" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S24" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T24" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24376,16 +24378,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H25" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J25" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T25" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24455,13 +24457,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H26" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I26" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S26" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T26" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24534,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H27" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I27" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S27" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T27" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24613,16 +24615,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H28" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J28" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T28" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24692,13 +24694,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H29" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I29" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S29" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T29" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24771,13 +24773,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H30" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I30" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S30" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T30" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24850,16 +24852,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H31" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J31" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T31" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24929,13 +24931,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H32" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I32" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S32" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T32" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25008,13 +25010,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H33" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I33" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S33" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T33" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25087,16 +25089,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H34" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J34" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T34" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25166,13 +25168,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H35" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I35" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S35" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T35" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25245,13 +25247,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H36" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I36" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S36" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T36" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25324,16 +25326,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H37" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J37" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T37" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25403,13 +25405,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H38" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I38" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S38" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T38" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25482,13 +25484,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H39" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I39" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S39" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T39" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25561,16 +25563,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H40" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J40" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T40" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25640,13 +25642,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H41" t="n">
-        <v>326.9589875257946</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I41" t="n">
-        <v>163.1194409052448</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.24645594497376</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S41" t="n">
-        <v>180.9777289515631</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T41" t="n">
-        <v>218.1842584938718</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3903920868348</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25719,13 +25721,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.4388618514006</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H42" t="n">
-        <v>104.8189406330145</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I42" t="n">
-        <v>66.38453216684378</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>58.41412320779487</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S42" t="n">
-        <v>158.1075995298878</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T42" t="n">
-        <v>196.0271979740726</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25798,16 +25800,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3996908999483</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H43" t="n">
-        <v>157.278433158951</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0259769449628</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J43" t="n">
-        <v>54.20305419548392</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.73842027765227</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3635507864171</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8198203812747</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T43" t="n">
-        <v>226.2392653171887</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>335.1662781399485</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -25871,19 +25873,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>334.5679039038409</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.7626217824606</v>
+        <v>413.2992339679078</v>
       </c>
       <c r="H44" t="n">
-        <v>326.9589875257946</v>
+        <v>322.2133170700056</v>
       </c>
       <c r="I44" t="n">
-        <v>163.1194409052448</v>
+        <v>145.2546821846975</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.24645594497376</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>180.9777289515631</v>
+        <v>170.4182791274409</v>
       </c>
       <c r="T44" t="n">
-        <v>218.1842584938718</v>
+        <v>216.1557783356668</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3533210616706</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25928,7 +25930,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>323.6866822840394</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -25956,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.4388618514006</v>
+        <v>135.1909275126991</v>
       </c>
       <c r="H45" t="n">
-        <v>104.8189406330145</v>
+        <v>102.4244168881865</v>
       </c>
       <c r="I45" t="n">
-        <v>66.38453216684378</v>
+        <v>57.84819638260233</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>58.41412320779487</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>158.1075995298878</v>
+        <v>105.2096855275349</v>
       </c>
       <c r="T45" t="n">
-        <v>196.0271979740726</v>
+        <v>195.0278486000958</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6024216269155</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>201.4392148985535</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>155.1210195671395</v>
       </c>
     </row>
     <row r="46">
@@ -26035,16 +26037,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3996908999483</v>
+        <v>167.1918310790352</v>
       </c>
       <c r="H46" t="n">
-        <v>157.278433158951</v>
+        <v>155.4303703875596</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0259769449628</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J46" t="n">
-        <v>54.20305419548392</v>
+        <v>39.50736485692518</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.73842027765227</v>
+        <v>21.33299472828048</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3635507864171</v>
+        <v>142.0174173842683</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8198203812747</v>
+        <v>210.1973905931794</v>
       </c>
       <c r="T46" t="n">
-        <v>226.2392653171887</v>
+        <v>182.5881808567148</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0255486803282</v>
+        <v>237.4640790204682</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>204.3862192154926</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>237.542445035969</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>344205.9217225133</v>
+        <v>343903.9582971549</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>344205.9217225133</v>
+        <v>387531.6322670308</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>68964.53833830773</v>
       </c>
       <c r="E2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462078</v>
       </c>
       <c r="F2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462076</v>
       </c>
       <c r="G2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462076</v>
       </c>
       <c r="H2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462078</v>
       </c>
       <c r="I2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462078</v>
       </c>
       <c r="J2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462076</v>
       </c>
       <c r="K2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462074</v>
       </c>
       <c r="L2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462076</v>
       </c>
       <c r="M2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462072</v>
       </c>
       <c r="N2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462075</v>
       </c>
       <c r="O2" t="n">
-        <v>75091.61475253358</v>
+        <v>75977.68808462075</v>
       </c>
       <c r="P2" t="n">
-        <v>75091.61475253358</v>
+        <v>86575.36577833412</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>218261.0761326449</v>
+        <v>250521.6932448584</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>61469.23698652543</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>47744.68038805919</v>
       </c>
       <c r="E4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="F4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="G4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="H4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="I4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="J4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="K4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="L4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="M4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="N4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="O4" t="n">
-        <v>14958.07242294273</v>
+        <v>10771.01823381763</v>
       </c>
       <c r="P4" t="n">
-        <v>14958.07242294273</v>
+        <v>7974.051867038302</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="F5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="G5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="H5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="I5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="J5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="K5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="L5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="M5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="N5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="O5" t="n">
-        <v>5922.421822785898</v>
+        <v>6797.799999175896</v>
       </c>
       <c r="P5" t="n">
-        <v>5922.421822785898</v>
+        <v>11387.10611072011</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12407.74204975146</v>
+        <v>-12407.74204975145</v>
       </c>
       <c r="C6" t="n">
-        <v>-12407.74204975146</v>
+        <v>-12407.74204975145</v>
       </c>
       <c r="D6" t="n">
-        <v>-12407.74204975146</v>
+        <v>-12407.74204975145</v>
       </c>
       <c r="E6" t="n">
-        <v>-164049.9556258399</v>
+        <v>-192112.8233932311</v>
       </c>
       <c r="F6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.86985162724</v>
       </c>
       <c r="G6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.86985162724</v>
       </c>
       <c r="H6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.86985162726</v>
       </c>
       <c r="I6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.86985162726</v>
       </c>
       <c r="J6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.86985162724</v>
       </c>
       <c r="K6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.86985162721</v>
       </c>
       <c r="L6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.86985162724</v>
       </c>
       <c r="M6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.8698516272</v>
       </c>
       <c r="N6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.86985162723</v>
       </c>
       <c r="O6" t="n">
-        <v>54211.12050680496</v>
+        <v>58408.86985162723</v>
       </c>
       <c r="P6" t="n">
-        <v>54211.12050680496</v>
+        <v>5744.970814050277</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="F3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="G3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="H3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="I3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="J3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="K3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="L3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="M3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="N3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="O3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="P3" t="n">
-        <v>271.6707258158669</v>
+        <v>386.9384446858788</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271.6707258158669</v>
+        <v>311.8256880355916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>75.11275665028728</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H11" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I11" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J11" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K11" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L11" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M11" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N11" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P11" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q11" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R11" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S11" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T11" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H12" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I12" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J12" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K12" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L12" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
         <v>138.5806830739679</v>
@@ -31856,22 +31858,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R12" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S12" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T12" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H13" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I13" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J13" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K13" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L13" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M13" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N13" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O13" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P13" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S13" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T13" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H14" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I14" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J14" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K14" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L14" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M14" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N14" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O14" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P14" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q14" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R14" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S14" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T14" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H15" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I15" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J15" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K15" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L15" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
         <v>138.5806830739679</v>
@@ -32093,22 +32095,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R15" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S15" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T15" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H16" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I16" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J16" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K16" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L16" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M16" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N16" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O16" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P16" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S16" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T16" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H17" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I17" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J17" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K17" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L17" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M17" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N17" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O17" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P17" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q17" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R17" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S17" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T17" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H18" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I18" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J18" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K18" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L18" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M18" t="n">
         <v>138.5806830739679</v>
@@ -32330,22 +32332,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R18" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S18" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T18" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H19" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I19" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J19" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K19" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L19" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M19" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N19" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O19" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P19" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R19" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S19" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T19" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H20" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I20" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J20" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K20" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L20" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M20" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N20" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O20" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P20" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q20" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R20" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S20" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T20" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H21" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I21" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J21" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K21" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L21" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M21" t="n">
         <v>138.5806830739679</v>
@@ -32567,22 +32569,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R21" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S21" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T21" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H22" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I22" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J22" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K22" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L22" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M22" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N22" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O22" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P22" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R22" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S22" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T22" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H23" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I23" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J23" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K23" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L23" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M23" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N23" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O23" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P23" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q23" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R23" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S23" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T23" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H24" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I24" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J24" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K24" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L24" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M24" t="n">
         <v>138.5806830739679</v>
@@ -32804,22 +32806,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R24" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S24" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T24" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H25" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I25" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J25" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K25" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L25" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M25" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N25" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O25" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P25" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R25" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S25" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T25" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H26" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I26" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J26" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K26" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L26" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M26" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N26" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O26" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P26" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q26" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R26" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S26" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T26" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H27" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I27" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J27" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K27" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L27" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M27" t="n">
         <v>138.5806830739679</v>
@@ -33041,22 +33043,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R27" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S27" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T27" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H28" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I28" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J28" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K28" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L28" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M28" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N28" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O28" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P28" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R28" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S28" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T28" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H29" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I29" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J29" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K29" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L29" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M29" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N29" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O29" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P29" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q29" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R29" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S29" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T29" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H30" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I30" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J30" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K30" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L30" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M30" t="n">
         <v>138.5806830739679</v>
@@ -33278,22 +33280,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R30" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S30" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T30" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H31" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I31" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J31" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K31" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L31" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M31" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N31" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O31" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P31" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R31" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S31" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T31" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H32" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I32" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J32" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K32" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L32" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M32" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N32" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O32" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P32" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q32" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R32" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S32" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T32" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H33" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I33" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J33" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K33" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L33" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
         <v>138.5806830739679</v>
@@ -33515,22 +33517,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R33" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S33" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T33" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H34" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I34" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J34" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K34" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L34" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M34" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N34" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O34" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P34" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R34" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S34" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T34" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H35" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I35" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J35" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K35" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L35" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M35" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N35" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O35" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P35" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q35" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R35" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S35" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T35" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H36" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I36" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J36" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K36" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L36" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M36" t="n">
         <v>138.5806830739679</v>
@@ -33752,22 +33754,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R36" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S36" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T36" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H37" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I37" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J37" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K37" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L37" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M37" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N37" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O37" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P37" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R37" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S37" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T37" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H38" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I38" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J38" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K38" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L38" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M38" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N38" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O38" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P38" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q38" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R38" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S38" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T38" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H39" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I39" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J39" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K39" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L39" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M39" t="n">
         <v>138.5806830739679</v>
@@ -33989,22 +33991,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R39" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S39" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T39" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H40" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I40" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J40" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K40" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L40" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M40" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N40" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O40" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P40" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R40" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S40" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T40" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.092143621370318</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H41" t="n">
-        <v>11.18491586235877</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I41" t="n">
-        <v>42.10486696287924</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J41" t="n">
-        <v>92.69432468427914</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K41" t="n">
-        <v>138.9247641768847</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L41" t="n">
-        <v>172.3484545293967</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M41" t="n">
-        <v>191.770863655941</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N41" t="n">
-        <v>194.8739167201595</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O41" t="n">
-        <v>184.0139135851584</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P41" t="n">
-        <v>157.0516179325786</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q41" t="n">
-        <v>117.939224492254</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R41" t="n">
-        <v>68.60436675590331</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S41" t="n">
-        <v>24.88722277197616</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T41" t="n">
-        <v>4.780858702548571</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H42" t="n">
-        <v>5.643574889118293</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I42" t="n">
-        <v>20.11901129862788</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J42" t="n">
-        <v>55.20810476226028</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K42" t="n">
-        <v>94.35944445625256</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L42" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M42" t="n">
         <v>138.5806830739679</v>
@@ -34226,22 +34228,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>111.5849062318039</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.59155475608482</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R42" t="n">
-        <v>36.28085655329635</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S42" t="n">
-        <v>10.85401437575656</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T42" t="n">
-        <v>2.355333934196053</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H43" t="n">
-        <v>4.355638849965868</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I43" t="n">
-        <v>14.73256985244078</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J43" t="n">
-        <v>34.63579073229502</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K43" t="n">
-        <v>56.9172438676521</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L43" t="n">
-        <v>72.83447622938832</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M43" t="n">
-        <v>76.79374303677035</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N43" t="n">
-        <v>74.96775946981131</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O43" t="n">
-        <v>69.24485975385409</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P43" t="n">
-        <v>59.25093993859494</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.0222795981959</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R43" t="n">
-        <v>22.0275968833652</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S43" t="n">
-        <v>8.537586580147813</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T43" t="n">
-        <v>2.093200674318973</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.092143621370318</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H44" t="n">
-        <v>11.18491586235877</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I44" t="n">
-        <v>42.10486696287924</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J44" t="n">
-        <v>92.69432468427914</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K44" t="n">
-        <v>138.9247641768847</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L44" t="n">
-        <v>172.3484545293967</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M44" t="n">
-        <v>191.770863655941</v>
+        <v>273.1377092480375</v>
       </c>
       <c r="N44" t="n">
-        <v>194.8739167201595</v>
+        <v>272.2278688581227</v>
       </c>
       <c r="O44" t="n">
-        <v>184.0139135851584</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P44" t="n">
-        <v>157.0516179325786</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q44" t="n">
-        <v>117.939224492254</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R44" t="n">
-        <v>68.60436675590331</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S44" t="n">
-        <v>24.88722277197616</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T44" t="n">
-        <v>4.780858702548571</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H45" t="n">
-        <v>5.643574889118293</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I45" t="n">
-        <v>20.11901129862788</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J45" t="n">
-        <v>55.20810476226028</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K45" t="n">
-        <v>94.35944445625256</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>126.8779177501367</v>
+        <v>180.7112047563626</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>187.1308149254144</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>149.2716836424864</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>187.5814701847799</v>
       </c>
       <c r="P45" t="n">
-        <v>111.5849062318039</v>
+        <v>158.9294906106962</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.59155475608482</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R45" t="n">
-        <v>36.28085655329635</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S45" t="n">
-        <v>10.85401437575656</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T45" t="n">
-        <v>2.355333934196053</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H46" t="n">
-        <v>4.355638849965868</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I46" t="n">
-        <v>14.73256985244078</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J46" t="n">
-        <v>34.63579073229502</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K46" t="n">
-        <v>56.9172438676521</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L46" t="n">
-        <v>72.83447622938832</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M46" t="n">
-        <v>76.79374303677035</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N46" t="n">
-        <v>74.96775946981131</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O46" t="n">
-        <v>69.24485975385409</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P46" t="n">
-        <v>59.25093993859494</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.0222795981959</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R46" t="n">
-        <v>22.0275968833652</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S46" t="n">
-        <v>8.537586580147813</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T46" t="n">
-        <v>2.093200674318973</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>45.62068447098522</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.2135143612364</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>28.30444338172418</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,16 +38183,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
